--- a/biology/Histoire de la zoologie et de la botanique/Anders_Hellant/Anders_Hellant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anders_Hellant/Anders_Hellant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anders Hellant ou en  français André Hélant né le 30 novembre 1717 à Pello et mort le 23 novembre 1789 à Tornio, est un homme d'affaires, astronome et physicien suédois. 
 Il a voyagé en compagnie de Maupertuis et Anders Celsius lors d'une expédition géodésique en Laponie ayant pour but de connaître la forme réelle de la Terre. Parlant le français, le finnois et le lapon, c'est un interprète idéal pour Maupertuis.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents de André Hellant étaient des Lapons du nord de l'actuelle Finlande, alors partie du Royaume de Suède. Il est repéré pour ses passions pour l'aventure et l'astronomie, son intelligence pour la science et son intérêt pour la langue française. Il meurt célibataire à Tornio sans descendance officielle.
 Il étudie à Uppsala l'astronomie et la physique.
